--- a/OfferCruzMailBot/plantillas/area-lista.xlsx
+++ b/OfferCruzMailBot/plantillas/area-lista.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documentos\UAGRM\Tecnologia web\1er Proyecto (Mail)\OfferCruzMailBot\plantillas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14115" windowHeight="4680"/>
   </bookViews>
@@ -14,27 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Código</t>
+    <t>Nombre</t>
   </si>
   <si>
-    <t>Año Inicial</t>
+    <t>Descripción</t>
   </si>
   <si>
-    <t>Año Final</t>
+    <t>Lista de perfiles</t>
   </si>
   <si>
-    <t>Zona UTM</t>
-  </si>
-  <si>
-    <t>Banda UTM</t>
-  </si>
-  <si>
-    <t>Lista de áreas</t>
+    <t>Permisos</t>
   </si>
 </sst>
 </file>
@@ -129,10 +128,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -145,12 +144,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -192,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +229,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,31 +441,31 @@
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="76.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>6</v>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -480,14 +482,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="F5"/>
+      <c r="G5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
